--- a/data/trans_dic/P55_9-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P55_9-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +38,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -50,6 +51,27 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin"/>
@@ -476,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -492,12 +514,15 @@
     <col width="14" customWidth="1" min="3" max="3"/>
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que no puede permitirse disponer de una lavadora</t>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,45%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -506,16 +531,19 @@
           <t>Hombre</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
+      <c r="H1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -527,12 +555,27 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -542,6 +585,9 @@
       <c r="C3" s="2" t="n"/>
       <c r="D3" s="2" t="n"/>
       <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -556,17 +602,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>97,53%</t>
+          <t>97,17%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>95,47%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>88,09%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>85,88%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>92,58%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>92,34%</t>
         </is>
       </c>
     </row>
@@ -579,17 +640,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>90,04; 100,0</t>
+          <t>83,72; 100,0</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>87,9; 99,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>92,16; 98,73</t>
+          <t>71,1; 96,17</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>54,22; 100,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>81,43; 97,49</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>67,96; 100,0</t>
         </is>
       </c>
     </row>
@@ -611,12 +687,27 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>99,23%</t>
+          <t>97,93%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>98,35%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>99,0%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>99,19%</t>
         </is>
       </c>
     </row>
@@ -629,17 +720,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>99,26; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>96,26; 99,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>98,33; 99,74</t>
+          <t>93,62; 99,54</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>94,45; 100,0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>97,08; 99,79</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>97,38; 100,0</t>
         </is>
       </c>
     </row>
@@ -661,12 +767,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>99,58%</t>
+          <t>97,04%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>99,78%</t>
+          <t>99,32%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>99,42%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>99,63%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>98,3%</t>
         </is>
       </c>
     </row>
@@ -679,24 +800,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,98; 100</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>97,89; 100,0</t>
+          <t>89,43; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>99,07; 100,0</t>
+          <t>96,87; 100,0</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>96,61; 100,0</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>98,11; 100,0</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>95,08; 99,69</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -706,17 +842,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>99,6%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>98,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -729,28 +880,844 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>98,38; 100,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>96,47; 99,09</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>98,01; 99,43</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>99,58%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>99,0%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>97,07%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>96,34%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>98,3%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>97,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>97,84; 100,0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>96,68; 100,0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>94,24; 98,75</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>87,08; 99,04</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>96,67; 99,22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>93,41; 99,22</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que no puede permitirse disponer de una lavadora (tasa de respuesta: 99,45%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>83.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>110899</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>177635</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>102752</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>180866</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>213651</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>358501</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>95551; 114134</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>82936; 112168</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>114187; 210608</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>187932; 224982</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>263851; 388243</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>323.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>326.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>396856</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>511686</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>360649</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>484352</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>757505</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>996039</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>344775; 366578</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>465176; 492495</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>742826; 763488</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>977921; 1004182</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>164.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>284.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>268209</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>342829</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>321313</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>393905</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>589522</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>736734</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>315926; 353275</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>313387; 323512</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>382764; 396204</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>580510; 591721</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>712615; 747190</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>307.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>308.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>383.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>690.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>699.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>775964</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>1032150</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>784714</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>1059123</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>1560678</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>2091273</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>762334; 779199</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>1007994; 1042596</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>761869; 798348</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>957250; 1088718</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>1534804; 1575284</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>2000775; 2125149</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>